--- a/data/new_posteriors/elementary_skills/complex_model/leak/constrained/results_model2b_leak_constrained.xlsx
+++ b/data/new_posteriors/elementary_skills/complex_model/leak/constrained/results_model2b_leak_constrained.xlsx
@@ -1682,7 +1682,7 @@
         <v>0.9999815136509584</v>
       </c>
       <c r="AL3" t="n" s="87">
-        <v>0.9999999780897162</v>
+        <v>0.9999999770404128</v>
       </c>
       <c r="AM3" t="n" s="87">
         <v>0.9988800825846683</v>
@@ -1691,7 +1691,7 @@
         <v>0.9999999760640814</v>
       </c>
       <c r="AO3" t="n" s="87">
-        <v>0.9999999999282687</v>
+        <v>0.9999999999257979</v>
       </c>
       <c r="AP3" t="n" s="87">
         <v>0.9808908495698795</v>
@@ -1700,11 +1700,9 @@
         <v>0.9999825248346477</v>
       </c>
       <c r="AR3" t="n" s="87">
-        <v>0.9999989293815078</v>
-      </c>
-      <c r="AS3" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999988908149798</v>
+      </c>
+      <c r="AS3" s="87"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1830,9 +1828,7 @@
       <c r="AR4" t="n" s="87">
         <v>0.9999999992642663</v>
       </c>
-      <c r="AS4" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS4" s="87"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1958,9 +1954,7 @@
       <c r="AR5" t="n" s="87">
         <v>0.9999999999996885</v>
       </c>
-      <c r="AS5" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS5" s="87"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -2086,9 +2080,7 @@
       <c r="AR6" t="n" s="87">
         <v>0.9999999999999891</v>
       </c>
-      <c r="AS6" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS6" s="87"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2214,9 +2206,7 @@
       <c r="AR7" t="n" s="87">
         <v>0.999999999994596</v>
       </c>
-      <c r="AS7" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS7" s="87"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2342,9 +2332,7 @@
       <c r="AR8" t="n" s="87">
         <v>0.9999994019579267</v>
       </c>
-      <c r="AS8" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS8" s="87"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2470,9 +2458,7 @@
       <c r="AR9" t="n" s="87">
         <v>0.9999999999999996</v>
       </c>
-      <c r="AS9" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS9" s="87"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2598,9 +2584,7 @@
       <c r="AR10" t="n" s="87">
         <v>0.9999999999938043</v>
       </c>
-      <c r="AS10" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS10" s="87"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2726,9 +2710,7 @@
       <c r="AR11" t="n" s="87">
         <v>0.9999999999756353</v>
       </c>
-      <c r="AS11" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS11" s="87"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2854,9 +2836,7 @@
       <c r="AR12" t="n" s="87">
         <v>0.9999999999999996</v>
       </c>
-      <c r="AS12" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS12" s="87"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2962,7 +2942,7 @@
         <v>0.9997746307410369</v>
       </c>
       <c r="AL13" t="n" s="87">
-        <v>0.9909164391194044</v>
+        <v>0.9901137542361965</v>
       </c>
       <c r="AM13" t="n" s="87">
         <v>0.9999703829079131</v>
@@ -2971,7 +2951,7 @@
         <v>0.9999999960141877</v>
       </c>
       <c r="AO13" t="n" s="87">
-        <v>0.9999988454427641</v>
+        <v>0.9999987673083925</v>
       </c>
       <c r="AP13" t="n" s="87">
         <v>0.9999997448059428</v>
@@ -2980,11 +2960,9 @@
         <v>0.9999999999669551</v>
       </c>
       <c r="AR13" t="n" s="87">
-        <v>0.9999997899668012</v>
-      </c>
-      <c r="AS13" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999997765637022</v>
+      </c>
+      <c r="AS13" s="87"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -3110,9 +3088,7 @@
       <c r="AR14" t="n" s="87">
         <v>0.9984515655169304</v>
       </c>
-      <c r="AS14" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS14" s="87"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3238,9 +3214,7 @@
       <c r="AR15" t="n" s="87">
         <v>0.9999995989425717</v>
       </c>
-      <c r="AS15" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS15" s="87"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3366,9 +3340,7 @@
       <c r="AR16" t="n" s="87">
         <v>0.9999999960240878</v>
       </c>
-      <c r="AS16" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS16" s="87"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3494,9 +3466,7 @@
       <c r="AR17" t="n" s="87">
         <v>0.9999999999940059</v>
       </c>
-      <c r="AS17" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS17" s="87"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3622,9 +3592,7 @@
       <c r="AR18" t="n" s="87">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AS18" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS18" s="87"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3750,9 +3718,7 @@
       <c r="AR19" t="n" s="87">
         <v>0.9999999999999891</v>
       </c>
-      <c r="AS19" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS19" s="87"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3878,9 +3844,7 @@
       <c r="AR20" t="n" s="87">
         <v>0.9999999999996885</v>
       </c>
-      <c r="AS20" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS20" s="87"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -4006,9 +3970,7 @@
       <c r="AR21" t="n" s="87">
         <v>1.0</v>
       </c>
-      <c r="AS21" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS21" s="87"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -4134,9 +4096,7 @@
       <c r="AR22" t="n" s="87">
         <v>0.9999999999999873</v>
       </c>
-      <c r="AS22" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS22" s="87"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -4262,9 +4222,7 @@
       <c r="AR23" t="n" s="87">
         <v>0.9999999999999972</v>
       </c>
-      <c r="AS23" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS23" s="87"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -4390,9 +4348,7 @@
       <c r="AR24" t="n" s="87">
         <v>0.9999999999999873</v>
       </c>
-      <c r="AS24" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS24" s="87"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -4518,9 +4474,7 @@
       <c r="AR25" t="n" s="87">
         <v>0.9999999999986436</v>
       </c>
-      <c r="AS25" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS25" s="87"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4626,7 +4580,7 @@
         <v>0.9997133683085404</v>
       </c>
       <c r="AL26" t="n" s="87">
-        <v>0.999940952294598</v>
+        <v>0.9999293960331657</v>
       </c>
       <c r="AM26" t="n" s="87">
         <v>0.9989474503912769</v>
@@ -4635,7 +4589,7 @@
         <v>0.9999974937474128</v>
       </c>
       <c r="AO26" t="n" s="87">
-        <v>0.9999995870589183</v>
+        <v>0.9999995264258336</v>
       </c>
       <c r="AP26" t="n" s="87">
         <v>0.9516416885965276</v>
@@ -4644,11 +4598,9 @@
         <v>0.9987927865676826</v>
       </c>
       <c r="AR26" t="n" s="87">
-        <v>0.9999406724716023</v>
-      </c>
-      <c r="AS26" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999325123391518</v>
+      </c>
+      <c r="AS26" s="87"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4754,7 +4706,7 @@
         <v>0.9998828266288097</v>
       </c>
       <c r="AL27" t="n" s="87">
-        <v>0.9869944818986175</v>
+        <v>0.9863840859351816</v>
       </c>
       <c r="AM27" t="n" s="87">
         <v>0.9999246036364673</v>
@@ -4763,7 +4715,7 @@
         <v>0.9999989926771505</v>
       </c>
       <c r="AO27" t="n" s="87">
-        <v>0.9988508286347053</v>
+        <v>0.998806782676778</v>
       </c>
       <c r="AP27" t="n" s="87">
         <v>0.9977830694858547</v>
@@ -4772,11 +4724,9 @@
         <v>0.9997515892846678</v>
       </c>
       <c r="AR27" t="n" s="87">
-        <v>0.9964052179952478</v>
-      </c>
-      <c r="AS27" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9962901273790589</v>
+      </c>
+      <c r="AS27" s="87"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4902,9 +4852,7 @@
       <c r="AR28" t="n" s="87">
         <v>0.999999999977724</v>
       </c>
-      <c r="AS28" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS28" s="87"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -5030,9 +4978,7 @@
       <c r="AR29" t="n" s="87">
         <v>0.9999997405262985</v>
       </c>
-      <c r="AS29" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS29" s="87"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -5138,7 +5084,7 @@
         <v>0.9988887290660726</v>
       </c>
       <c r="AL30" t="n" s="87">
-        <v>0.9826224709834077</v>
+        <v>0.9785948160863852</v>
       </c>
       <c r="AM30" t="n" s="87">
         <v>0.9950542263267478</v>
@@ -5147,7 +5093,7 @@
         <v>0.9968360235976534</v>
       </c>
       <c r="AO30" t="n" s="87">
-        <v>0.9959785442888617</v>
+        <v>0.995149481037302</v>
       </c>
       <c r="AP30" t="n" s="87">
         <v>0.6756016267918167</v>
@@ -5156,11 +5102,9 @@
         <v>0.7450741141584903</v>
       </c>
       <c r="AR30" t="n" s="87">
-        <v>0.1322703174592001</v>
-      </c>
-      <c r="AS30" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.1137595553433331</v>
+      </c>
+      <c r="AS30" s="87"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -5286,9 +5230,7 @@
       <c r="AR31" t="n" s="87">
         <v>0.9999999999999996</v>
       </c>
-      <c r="AS31" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS31" s="87"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -5394,7 +5336,7 @@
         <v>0.9977606790641764</v>
       </c>
       <c r="AL32" t="n" s="87">
-        <v>0.9323190817918717</v>
+        <v>0.9146358089643588</v>
       </c>
       <c r="AM32" t="n" s="87">
         <v>0.9943537370155136</v>
@@ -5403,7 +5345,7 @@
         <v>0.9937817778125789</v>
       </c>
       <c r="AO32" t="n" s="87">
-        <v>0.9865093296566068</v>
+        <v>0.9832469646827889</v>
       </c>
       <c r="AP32" t="n" s="87">
         <v>0.6613911762118947</v>
@@ -5412,11 +5354,9 @@
         <v>0.7157455285649473</v>
       </c>
       <c r="AR32" t="n" s="87">
-        <v>0.03379951175607754</v>
-      </c>
-      <c r="AS32" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.027888247979126417</v>
+      </c>
+      <c r="AS32" s="87"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5522,7 +5462,7 @@
         <v>0.9842102367741269</v>
       </c>
       <c r="AL33" t="n" s="87">
-        <v>0.6672904205980382</v>
+        <v>0.6264935451488272</v>
       </c>
       <c r="AM33" t="n" s="87">
         <v>0.9899155616379588</v>
@@ -5531,7 +5471,7 @@
         <v>0.9931471349954775</v>
       </c>
       <c r="AO33" t="n" s="87">
-        <v>0.9090622495132522</v>
+        <v>0.8970838437449289</v>
       </c>
       <c r="AP33" t="n" s="87">
         <v>0.6964583802139652</v>
@@ -5540,11 +5480,9 @@
         <v>0.8805473800833565</v>
       </c>
       <c r="AR33" t="n" s="87">
-        <v>0.017517596507655334</v>
-      </c>
-      <c r="AS33" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.015432055135071577</v>
+      </c>
+      <c r="AS33" s="87"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5650,7 +5588,7 @@
         <v>0.9991431031133345</v>
       </c>
       <c r="AL34" t="n" s="87">
-        <v>0.9101935630830891</v>
+        <v>0.8944711643159943</v>
       </c>
       <c r="AM34" t="n" s="87">
         <v>0.9989741602575257</v>
@@ -5659,7 +5597,7 @@
         <v>0.9994678968295261</v>
       </c>
       <c r="AO34" t="n" s="87">
-        <v>0.9826327409280347</v>
+        <v>0.9801333268143377</v>
       </c>
       <c r="AP34" t="n" s="87">
         <v>0.9220781353070449</v>
@@ -5668,11 +5606,9 @@
         <v>0.9842695595091917</v>
       </c>
       <c r="AR34" t="n" s="87">
-        <v>0.43555368141146134</v>
-      </c>
-      <c r="AS34" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.4041731451201472</v>
+      </c>
+      <c r="AS34" s="87"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5778,7 +5714,7 @@
         <v>0.9485877137085617</v>
       </c>
       <c r="AL35" t="n" s="87">
-        <v>0.6926874485433336</v>
+        <v>0.6474675836730376</v>
       </c>
       <c r="AM35" t="n" s="87">
         <v>0.9438169846822058</v>
@@ -5787,7 +5723,7 @@
         <v>0.943208968865964</v>
       </c>
       <c r="AO35" t="n" s="87">
-        <v>0.7332507731711656</v>
+        <v>0.6961310641702769</v>
       </c>
       <c r="AP35" t="n" s="87">
         <v>0.36391883579299533</v>
@@ -5796,11 +5732,9 @@
         <v>0.10311781934441218</v>
       </c>
       <c r="AR35" t="n" s="87">
-        <v>5.42837529031585E-5</v>
-      </c>
-      <c r="AS35" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>4.594856521279984E-5</v>
+      </c>
+      <c r="AS35" s="87"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5906,7 +5840,7 @@
         <v>0.9991431031133345</v>
       </c>
       <c r="AL36" t="n" s="87">
-        <v>0.898907716579003</v>
+        <v>0.8814668134885788</v>
       </c>
       <c r="AM36" t="n" s="87">
         <v>0.9985872282214635</v>
@@ -5915,7 +5849,7 @@
         <v>0.9988341492504703</v>
       </c>
       <c r="AO36" t="n" s="87">
-        <v>0.9797404013637394</v>
+        <v>0.976834548454233</v>
       </c>
       <c r="AP36" t="n" s="87">
         <v>0.751200235286688</v>
@@ -5924,11 +5858,9 @@
         <v>0.8920353651396085</v>
       </c>
       <c r="AR36" t="n" s="87">
-        <v>0.03852237004152272</v>
-      </c>
-      <c r="AS36" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.03402272237980502</v>
+      </c>
+      <c r="AS36" s="87"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -6034,7 +5966,7 @@
         <v>0.9991431031133345</v>
       </c>
       <c r="AL37" t="n" s="87">
-        <v>0.9101935630830891</v>
+        <v>0.8944711643159943</v>
       </c>
       <c r="AM37" t="n" s="87">
         <v>0.9989741602575257</v>
@@ -6043,7 +5975,7 @@
         <v>0.9994678968295261</v>
       </c>
       <c r="AO37" t="n" s="87">
-        <v>0.9826327409280347</v>
+        <v>0.9801333268143377</v>
       </c>
       <c r="AP37" t="n" s="87">
         <v>0.9220781353070449</v>
@@ -6052,11 +5984,9 @@
         <v>0.9842695595091917</v>
       </c>
       <c r="AR37" t="n" s="87">
-        <v>0.43555368141146134</v>
-      </c>
-      <c r="AS37" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.4041731451201472</v>
+      </c>
+      <c r="AS37" s="87"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -6162,7 +6092,7 @@
         <v>0.9998194876487245</v>
       </c>
       <c r="AL38" t="n" s="87">
-        <v>0.9999328414966444</v>
+        <v>0.9999227467812952</v>
       </c>
       <c r="AM38" t="n" s="87">
         <v>0.9997784965950712</v>
@@ -6171,7 +6101,7 @@
         <v>0.9999999625030986</v>
       </c>
       <c r="AO38" t="n" s="87">
-        <v>0.9999995545710292</v>
+        <v>0.9999995050670136</v>
       </c>
       <c r="AP38" t="n" s="87">
         <v>0.9994808406745581</v>
@@ -6180,11 +6110,9 @@
         <v>0.9999930237620258</v>
       </c>
       <c r="AR38" t="n" s="87">
-        <v>0.9999822302376047</v>
-      </c>
-      <c r="AS38" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999803140699174</v>
+      </c>
+      <c r="AS38" s="87"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -6290,7 +6218,7 @@
         <v>0.9991431031133345</v>
       </c>
       <c r="AL39" t="n" s="87">
-        <v>0.9092820719598239</v>
+        <v>0.8934187843422252</v>
       </c>
       <c r="AM39" t="n" s="87">
         <v>0.9989741602575257</v>
@@ -6299,7 +6227,7 @@
         <v>0.999456086221896</v>
       </c>
       <c r="AO39" t="n" s="87">
-        <v>0.9819418902253672</v>
+        <v>0.9793451420166454</v>
       </c>
       <c r="AP39" t="n" s="87">
         <v>0.9212939044951087</v>
@@ -6308,11 +6236,9 @@
         <v>0.9839377802897723</v>
       </c>
       <c r="AR39" t="n" s="87">
-        <v>0.4154585571567005</v>
-      </c>
-      <c r="AS39" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.3845394812169931</v>
+      </c>
+      <c r="AS39" s="87"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -6418,7 +6344,7 @@
         <v>0.9983813902354324</v>
       </c>
       <c r="AL40" t="n" s="87">
-        <v>0.8693347142207858</v>
+        <v>0.8427595569185159</v>
       </c>
       <c r="AM40" t="n" s="87">
         <v>0.9979112826739399</v>
@@ -6427,7 +6353,7 @@
         <v>0.9979646712188747</v>
       </c>
       <c r="AO40" t="n" s="87">
-        <v>0.9588364393172746</v>
+        <v>0.9509902567550718</v>
       </c>
       <c r="AP40" t="n" s="87">
         <v>0.8949870707930285</v>
@@ -6436,11 +6362,9 @@
         <v>0.9730519631211787</v>
       </c>
       <c r="AR40" t="n" s="87">
-        <v>0.1569733283359623</v>
-      </c>
-      <c r="AS40" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.13691089756242403</v>
+      </c>
+      <c r="AS40" s="87"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6546,7 +6470,7 @@
         <v>0.9999925451393995</v>
       </c>
       <c r="AL41" t="n" s="87">
-        <v>0.9999999992706515</v>
+        <v>0.9999999992418657</v>
       </c>
       <c r="AM41" t="n" s="87">
         <v>0.9999729834658362</v>
@@ -6564,11 +6488,9 @@
         <v>0.9999999999999974</v>
       </c>
       <c r="AR41" t="n" s="87">
-        <v>0.9999999999994624</v>
-      </c>
-      <c r="AS41" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.999999999999448</v>
+      </c>
+      <c r="AS41" s="87"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6674,7 +6596,7 @@
         <v>0.9950011951766847</v>
       </c>
       <c r="AL42" t="n" s="87">
-        <v>0.9387337717993159</v>
+        <v>0.9283790865765</v>
       </c>
       <c r="AM42" t="n" s="87">
         <v>0.9873609926899255</v>
@@ -6683,7 +6605,7 @@
         <v>0.9851299721634236</v>
       </c>
       <c r="AO42" t="n" s="87">
-        <v>0.9694283018940884</v>
+        <v>0.9644898181460891</v>
       </c>
       <c r="AP42" t="n" s="87">
         <v>0.5326858760206056</v>
@@ -6692,11 +6614,9 @@
         <v>0.38529681089984963</v>
       </c>
       <c r="AR42" t="n" s="87">
-        <v>0.002524266269531901</v>
-      </c>
-      <c r="AS42" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.0022020296255803743</v>
+      </c>
+      <c r="AS42" s="87"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6802,7 +6722,7 @@
         <v>0.9992738546525851</v>
       </c>
       <c r="AL43" t="n" s="87">
-        <v>0.9243238568762169</v>
+        <v>0.9139271171162533</v>
       </c>
       <c r="AM43" t="n" s="87">
         <v>0.9993920392476395</v>
@@ -6811,7 +6731,7 @@
         <v>0.9994285343113954</v>
       </c>
       <c r="AO43" t="n" s="87">
-        <v>0.9866135275728646</v>
+        <v>0.9851478793093971</v>
       </c>
       <c r="AP43" t="n" s="87">
         <v>0.9022257572511887</v>
@@ -6820,11 +6740,9 @@
         <v>0.953367687015267</v>
       </c>
       <c r="AR43" t="n" s="87">
-        <v>0.19030299173399223</v>
-      </c>
-      <c r="AS43" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.17502122083310437</v>
+      </c>
+      <c r="AS43" s="87"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6930,7 +6848,7 @@
         <v>0.9993356307495371</v>
       </c>
       <c r="AL44" t="n" s="87">
-        <v>0.9805280955170781</v>
+        <v>0.9768053661620354</v>
       </c>
       <c r="AM44" t="n" s="87">
         <v>0.9989741602575257</v>
@@ -6939,7 +6857,7 @@
         <v>0.9998290480510656</v>
       </c>
       <c r="AO44" t="n" s="87">
-        <v>0.9979930409133982</v>
+        <v>0.9976990324388452</v>
       </c>
       <c r="AP44" t="n" s="87">
         <v>0.9337140981682884</v>
@@ -6948,11 +6866,9 @@
         <v>0.9863164396838229</v>
       </c>
       <c r="AR44" t="n" s="87">
-        <v>0.9199539040077546</v>
-      </c>
-      <c r="AS44" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.909934986934351</v>
+      </c>
+      <c r="AS44" s="87"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -7058,7 +6974,7 @@
         <v>0.9995707676122885</v>
       </c>
       <c r="AL45" t="n" s="87">
-        <v>0.9467052279149376</v>
+        <v>0.9396236235071008</v>
       </c>
       <c r="AM45" t="n" s="87">
         <v>0.99953030187831</v>
@@ -7067,7 +6983,7 @@
         <v>0.9998864765490184</v>
       </c>
       <c r="AO45" t="n" s="87">
-        <v>0.9929212818172454</v>
+        <v>0.9921876863761185</v>
       </c>
       <c r="AP45" t="n" s="87">
         <v>0.9499154252545762</v>
@@ -7076,11 +6992,9 @@
         <v>0.9917850825724192</v>
       </c>
       <c r="AR45" t="n" s="87">
-        <v>0.7649085443358721</v>
-      </c>
-      <c r="AS45" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.7469728134091582</v>
+      </c>
+      <c r="AS45" s="87"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -7186,7 +7100,7 @@
         <v>0.7627818031472313</v>
       </c>
       <c r="AL46" t="n" s="87">
-        <v>0.38613313957376094</v>
+        <v>0.2903491514497001</v>
       </c>
       <c r="AM46" t="n" s="87">
         <v>0.7078925849573401</v>
@@ -7195,7 +7109,7 @@
         <v>0.2870506358136895</v>
       </c>
       <c r="AO46" t="n" s="87">
-        <v>0.00104265118480995</v>
+        <v>6.944683775277874E-4</v>
       </c>
       <c r="AP46" t="n" s="87">
         <v>0.2384915656392191</v>
@@ -7204,11 +7118,9 @@
         <v>0.001247342444278374</v>
       </c>
       <c r="AR46" t="n" s="87">
-        <v>7.745435335111715E-10</v>
-      </c>
-      <c r="AS46" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>5.483224510139876E-10</v>
+      </c>
+      <c r="AS46" s="87"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -7314,7 +7226,7 @@
         <v>0.9934020758752233</v>
       </c>
       <c r="AL47" t="n" s="87">
-        <v>0.9642249273842909</v>
+        <v>0.9557538406671416</v>
       </c>
       <c r="AM47" t="n" s="87">
         <v>0.9824363880247543</v>
@@ -7323,7 +7235,7 @@
         <v>0.934127953957152</v>
       </c>
       <c r="AO47" t="n" s="87">
-        <v>0.9418548522258269</v>
+        <v>0.9293800091486226</v>
       </c>
       <c r="AP47" t="n" s="87">
         <v>0.7078848996452859</v>
@@ -7332,11 +7244,9 @@
         <v>0.31930447328332545</v>
       </c>
       <c r="AR47" t="n" s="87">
-        <v>0.0028268281291029375</v>
-      </c>
-      <c r="AS47" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.0023789405506288545</v>
+      </c>
+      <c r="AS47" s="87"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7442,7 +7352,7 @@
         <v>0.9859368025382959</v>
       </c>
       <c r="AL48" t="n" s="87">
-        <v>0.8925354136270771</v>
+        <v>0.8741490494593681</v>
       </c>
       <c r="AM48" t="n" s="87">
         <v>0.977079576826831</v>
@@ -7451,7 +7361,7 @@
         <v>0.9759960864111691</v>
       </c>
       <c r="AO48" t="n" s="87">
-        <v>0.9479155693465431</v>
+        <v>0.9407212345056716</v>
       </c>
       <c r="AP48" t="n" s="87">
         <v>0.44894289987253827</v>
@@ -7460,11 +7370,9 @@
         <v>0.21509183994109451</v>
       </c>
       <c r="AR48" t="n" s="87">
-        <v>9.6101429165186E-4</v>
-      </c>
-      <c r="AS48" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>8.449065035115289E-4</v>
+      </c>
+      <c r="AS48" s="87"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7570,7 +7478,7 @@
         <v>0.9971704886226584</v>
       </c>
       <c r="AL49" t="n" s="87">
-        <v>0.8271135228961045</v>
+        <v>0.7881876076956734</v>
       </c>
       <c r="AM49" t="n" s="87">
         <v>0.9943537370155136</v>
@@ -7579,7 +7487,7 @@
         <v>0.9901386018413104</v>
       </c>
       <c r="AO49" t="n" s="87">
-        <v>0.8914312009325309</v>
+        <v>0.8682473850493057</v>
       </c>
       <c r="AP49" t="n" s="87">
         <v>0.6503722351387593</v>
@@ -7588,11 +7496,9 @@
         <v>0.6893092438344125</v>
       </c>
       <c r="AR49" t="n" s="87">
-        <v>0.0015444174668083647</v>
-      </c>
-      <c r="AS49" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.0012669143528065783</v>
+      </c>
+      <c r="AS49" s="87"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7698,7 +7604,7 @@
         <v>0.9710300277268941</v>
       </c>
       <c r="AL50" t="n" s="87">
-        <v>0.6438295768631007</v>
+        <v>0.5752543296799763</v>
       </c>
       <c r="AM50" t="n" s="87">
         <v>0.9609851381694964</v>
@@ -7707,7 +7613,7 @@
         <v>0.9326624155522595</v>
       </c>
       <c r="AO50" t="n" s="87">
-        <v>0.44788402767489066</v>
+        <v>0.38348171018942434</v>
       </c>
       <c r="AP50" t="n" s="87">
         <v>0.4776252828608313</v>
@@ -7716,11 +7622,9 @@
         <v>0.191089506917219</v>
       </c>
       <c r="AR50" t="n" s="87">
-        <v>2.082685913996531E-5</v>
-      </c>
-      <c r="AS50" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>1.655224845465732E-5</v>
+      </c>
+      <c r="AS50" s="87"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7826,7 +7730,7 @@
         <v>0.9274777335030001</v>
       </c>
       <c r="AL51" t="n" s="87">
-        <v>0.9646908923783925</v>
+        <v>0.9548893771040337</v>
       </c>
       <c r="AM51" t="n" s="87">
         <v>0.7668384712077476</v>
@@ -7835,7 +7739,7 @@
         <v>0.25877201891258805</v>
       </c>
       <c r="AO51" t="n" s="87">
-        <v>0.11962239231684386</v>
+        <v>0.09751255793066316</v>
       </c>
       <c r="AP51" t="n" s="87">
         <v>0.20484831408668616</v>
@@ -7844,11 +7748,9 @@
         <v>5.303861688824386E-4</v>
       </c>
       <c r="AR51" t="n" s="87">
-        <v>3.0723658553467445E-7</v>
-      </c>
-      <c r="AS51" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>2.5025707254795756E-7</v>
+      </c>
+      <c r="AS51" s="87"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7954,7 +7856,7 @@
         <v>0.9992302062131772</v>
       </c>
       <c r="AL52" t="n" s="87">
-        <v>0.9013953556349189</v>
+        <v>0.8845787208554203</v>
       </c>
       <c r="AM52" t="n" s="87">
         <v>0.9987899062504567</v>
@@ -7963,7 +7865,7 @@
         <v>0.9989537759229915</v>
       </c>
       <c r="AO52" t="n" s="87">
-        <v>0.9811240850679771</v>
+        <v>0.9782038046441685</v>
       </c>
       <c r="AP52" t="n" s="87">
         <v>0.763469471377861</v>
@@ -7972,11 +7874,9 @@
         <v>0.8992469369231619</v>
       </c>
       <c r="AR52" t="n" s="87">
-        <v>0.04376133791093829</v>
-      </c>
-      <c r="AS52" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.038368480156564</v>
+      </c>
+      <c r="AS52" s="87"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -8102,9 +8002,7 @@
       <c r="AR53" t="n" s="87">
         <v>0.9999999151666003</v>
       </c>
-      <c r="AS53" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS53" s="87"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -8230,9 +8128,7 @@
       <c r="AR54" t="n" s="87">
         <v>0.9999999992252859</v>
       </c>
-      <c r="AS54" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS54" s="87"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -8338,7 +8234,7 @@
         <v>0.9999084823854224</v>
       </c>
       <c r="AL55" t="n" s="87">
-        <v>0.9985109878075539</v>
+        <v>0.9984523103815547</v>
       </c>
       <c r="AM55" t="n" s="87">
         <v>0.9999430979145865</v>
@@ -8347,7 +8243,7 @@
         <v>0.9999999532987336</v>
       </c>
       <c r="AO55" t="n" s="87">
-        <v>0.9999705160341968</v>
+        <v>0.9999695689130244</v>
       </c>
       <c r="AP55" t="n" s="87">
         <v>0.9997718387141439</v>
@@ -8356,11 +8252,9 @@
         <v>0.9999925807406429</v>
       </c>
       <c r="AR55" t="n" s="87">
-        <v>0.9999146027389065</v>
-      </c>
-      <c r="AS55" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999123121420563</v>
+      </c>
+      <c r="AS55" s="87"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8486,9 +8380,7 @@
       <c r="AR56" t="n" s="87">
         <v>0.9999999999999891</v>
       </c>
-      <c r="AS56" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS56" s="87"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8594,7 +8486,7 @@
         <v>0.9999537979372476</v>
       </c>
       <c r="AL57" t="n" s="87">
-        <v>0.9999674025816452</v>
+        <v>0.9999658415149222</v>
       </c>
       <c r="AM57" t="n" s="87">
         <v>0.9998996002591635</v>
@@ -8603,7 +8495,7 @@
         <v>0.9999999696571796</v>
       </c>
       <c r="AO57" t="n" s="87">
-        <v>0.9999992636136039</v>
+        <v>0.9999992382494551</v>
       </c>
       <c r="AP57" t="n" s="87">
         <v>0.9913905313374335</v>
@@ -8612,11 +8504,9 @@
         <v>0.9995404659042056</v>
       </c>
       <c r="AR57" t="n" s="87">
-        <v>0.9998474476597052</v>
-      </c>
-      <c r="AS57" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9998419531807584</v>
+      </c>
+      <c r="AS57" s="87"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8742,9 +8632,7 @@
       <c r="AR58" t="n" s="87">
         <v>0.9999994019579267</v>
       </c>
-      <c r="AS58" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS58" s="87"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8850,7 +8738,7 @@
         <v>0.9999643455541676</v>
       </c>
       <c r="AL59" t="n" s="87">
-        <v>0.9999999401763437</v>
+        <v>0.9999999343285154</v>
       </c>
       <c r="AM59" t="n" s="87">
         <v>0.9995478674487113</v>
@@ -8859,7 +8747,7 @@
         <v>0.9999999969047323</v>
       </c>
       <c r="AO59" t="n" s="87">
-        <v>0.999999999908941</v>
+        <v>0.9999999999021898</v>
       </c>
       <c r="AP59" t="n" s="87">
         <v>0.9888186411175438</v>
@@ -8868,11 +8756,9 @@
         <v>0.9999704224084971</v>
       </c>
       <c r="AR59" t="n" s="87">
-        <v>0.9999973068790121</v>
-      </c>
-      <c r="AS59" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.999997120204418</v>
+      </c>
+      <c r="AS59" s="87"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8998,9 +8884,7 @@
       <c r="AR60" t="n" s="87">
         <v>0.9999999998114046</v>
       </c>
-      <c r="AS60" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS60" s="87"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -9106,7 +8990,7 @@
         <v>0.9999730065026422</v>
       </c>
       <c r="AL61" t="n" s="87">
-        <v>0.9999997027889516</v>
+        <v>0.9999996910586201</v>
       </c>
       <c r="AM61" t="n" s="87">
         <v>0.9999430979145865</v>
@@ -9115,7 +8999,7 @@
         <v>0.9999999999530788</v>
       </c>
       <c r="AO61" t="n" s="87">
-        <v>0.9999999999736612</v>
+        <v>0.999999999972815</v>
       </c>
       <c r="AP61" t="n" s="87">
         <v>0.9999095833547594</v>
@@ -9124,11 +9008,9 @@
         <v>0.9999999787273461</v>
       </c>
       <c r="AR61" t="n" s="87">
-        <v>0.9999998144891614</v>
-      </c>
-      <c r="AS61" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999998095127988</v>
+      </c>
+      <c r="AS61" s="87"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -9254,9 +9136,7 @@
       <c r="AR62" t="n" s="87">
         <v>0.9999999835885489</v>
       </c>
-      <c r="AS62" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS62" s="87"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -9362,7 +9242,7 @@
         <v>0.9999876831987452</v>
       </c>
       <c r="AL63" t="n" s="87">
-        <v>0.9999999923941069</v>
+        <v>0.9999999920939172</v>
       </c>
       <c r="AM63" t="n" s="87">
         <v>0.9999172542767663</v>
@@ -9371,7 +9251,7 @@
         <v>0.9999999999846805</v>
       </c>
       <c r="AO63" t="n" s="87">
-        <v>0.9999999999999626</v>
+        <v>0.9999999999999614</v>
       </c>
       <c r="AP63" t="n" s="87">
         <v>0.9994342216298118</v>
@@ -9380,11 +9260,9 @@
         <v>0.999999993834759</v>
       </c>
       <c r="AR63" t="n" s="87">
-        <v>0.9999999922440688</v>
-      </c>
-      <c r="AS63" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999920360145</v>
+      </c>
+      <c r="AS63" s="87"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9510,9 +9388,7 @@
       <c r="AR64" t="n" s="87">
         <v>0.9999999998463615</v>
       </c>
-      <c r="AS64" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS64" s="87"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9618,7 +9494,7 @@
         <v>0.9999731219580352</v>
       </c>
       <c r="AL65" t="n" s="87">
-        <v>0.9999999216897892</v>
+        <v>0.9999999185990397</v>
       </c>
       <c r="AM65" t="n" s="87">
         <v>0.9999447127885327</v>
@@ -9627,7 +9503,7 @@
         <v>0.9999999999329774</v>
       </c>
       <c r="AO65" t="n" s="87">
-        <v>0.9999999999999142</v>
+        <v>0.9999999999999114</v>
       </c>
       <c r="AP65" t="n" s="87">
         <v>0.9999424035964158</v>
@@ -9636,11 +9512,9 @@
         <v>0.9999999998354272</v>
       </c>
       <c r="AR65" t="n" s="87">
-        <v>0.9999999987328108</v>
-      </c>
-      <c r="AS65" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999986988182</v>
+      </c>
+      <c r="AS65" s="87"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9746,7 +9620,7 @@
         <v>0.9958974610186266</v>
       </c>
       <c r="AL66" t="n" s="87">
-        <v>0.9093001637595968</v>
+        <v>0.8863358731035993</v>
       </c>
       <c r="AM66" t="n" s="87">
         <v>0.9914901713501821</v>
@@ -9755,7 +9629,7 @@
         <v>0.990621843365171</v>
       </c>
       <c r="AO66" t="n" s="87">
-        <v>0.9817409999169863</v>
+        <v>0.9773520118192823</v>
       </c>
       <c r="AP66" t="n" s="87">
         <v>0.6100000351956089</v>
@@ -9764,11 +9638,9 @@
         <v>0.6251253775700962</v>
       </c>
       <c r="AR66" t="n" s="87">
-        <v>0.016741537082639958</v>
-      </c>
-      <c r="AS66" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.013771055990987397</v>
+      </c>
+      <c r="AS66" s="87"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9874,7 +9746,7 @@
         <v>0.9998458188892461</v>
       </c>
       <c r="AL67" t="n" s="87">
-        <v>0.9599240052341242</v>
+        <v>0.9584080713932677</v>
       </c>
       <c r="AM67" t="n" s="87">
         <v>0.9999712764526111</v>
@@ -9883,7 +9755,7 @@
         <v>0.9999999528128642</v>
       </c>
       <c r="AO67" t="n" s="87">
-        <v>0.9985449230851654</v>
+        <v>0.9984982500417113</v>
       </c>
       <c r="AP67" t="n" s="87">
         <v>0.9999925616643555</v>
@@ -9892,11 +9764,9 @@
         <v>0.9999997878572863</v>
       </c>
       <c r="AR67" t="n" s="87">
-        <v>0.9998602335338568</v>
-      </c>
-      <c r="AS67" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.99985648480997</v>
+      </c>
+      <c r="AS67" s="87"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -10002,7 +9872,7 @@
         <v>0.9998986864504394</v>
       </c>
       <c r="AL68" t="n" s="87">
-        <v>0.9999985615772035</v>
+        <v>0.9999984336621198</v>
       </c>
       <c r="AM68" t="n" s="87">
         <v>0.9998183349542451</v>
@@ -10011,7 +9881,7 @@
         <v>0.9999999945729494</v>
       </c>
       <c r="AO68" t="n" s="87">
-        <v>0.9999999998664381</v>
+        <v>0.9999999998568574</v>
       </c>
       <c r="AP68" t="n" s="87">
         <v>0.9991439635862186</v>
@@ -10020,11 +9890,9 @@
         <v>0.9999996668059669</v>
       </c>
       <c r="AR68" t="n" s="87">
-        <v>0.9999997261862589</v>
-      </c>
-      <c r="AS68" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999997098060516</v>
+      </c>
+      <c r="AS68" s="87"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -10130,7 +9998,7 @@
         <v>0.9974995366660655</v>
       </c>
       <c r="AL69" t="n" s="87">
-        <v>0.9773879722489932</v>
+        <v>0.9730741877790579</v>
       </c>
       <c r="AM69" t="n" s="87">
         <v>0.9896888713449493</v>
@@ -10139,7 +10007,7 @@
         <v>0.9853834578479731</v>
       </c>
       <c r="AO69" t="n" s="87">
-        <v>0.9825378993424747</v>
+        <v>0.9798114982908377</v>
       </c>
       <c r="AP69" t="n" s="87">
         <v>0.5617234243302331</v>
@@ -10148,11 +10016,9 @@
         <v>0.4290917251850385</v>
       </c>
       <c r="AR69" t="n" s="87">
-        <v>0.011148682721710147</v>
-      </c>
-      <c r="AS69" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.009735275770864448</v>
+      </c>
+      <c r="AS69" s="87"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -10258,7 +10124,7 @@
         <v>0.9994925735397217</v>
       </c>
       <c r="AL70" t="n" s="87">
-        <v>0.9980840698512666</v>
+        <v>0.9977099343114423</v>
       </c>
       <c r="AM70" t="n" s="87">
         <v>0.9992690960676197</v>
@@ -10267,7 +10133,7 @@
         <v>0.9999917672883598</v>
       </c>
       <c r="AO70" t="n" s="87">
-        <v>0.9998739932999539</v>
+        <v>0.9998554941124626</v>
       </c>
       <c r="AP70" t="n" s="87">
         <v>0.9910593039269235</v>
@@ -10276,11 +10142,9 @@
         <v>0.9988268597250745</v>
       </c>
       <c r="AR70" t="n" s="87">
-        <v>0.9989521362920438</v>
-      </c>
-      <c r="AS70" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9988081712168458</v>
+      </c>
+      <c r="AS70" s="87"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -10386,7 +10250,7 @@
         <v>0.9954443756626521</v>
       </c>
       <c r="AL71" t="n" s="87">
-        <v>0.9144563167245446</v>
+        <v>0.9053447177181675</v>
       </c>
       <c r="AM71" t="n" s="87">
         <v>0.9969807998461855</v>
@@ -10395,7 +10259,7 @@
         <v>0.9996230923393331</v>
       </c>
       <c r="AO71" t="n" s="87">
-        <v>0.9852519520031238</v>
+        <v>0.9834922166285357</v>
       </c>
       <c r="AP71" t="n" s="87">
         <v>0.9908294973857379</v>
@@ -10404,11 +10268,9 @@
         <v>0.9992210517157513</v>
       </c>
       <c r="AR71" t="n" s="87">
-        <v>0.9828293856334054</v>
-      </c>
-      <c r="AS71" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9811331823504507</v>
+      </c>
+      <c r="AS71" s="87"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -10514,7 +10376,7 @@
         <v>0.9992401385711847</v>
       </c>
       <c r="AL72" t="n" s="87">
-        <v>0.9999827702130967</v>
+        <v>0.9999786372779993</v>
       </c>
       <c r="AM72" t="n" s="87">
         <v>0.9967749140435193</v>
@@ -10523,7 +10385,7 @@
         <v>0.9999965294204399</v>
       </c>
       <c r="AO72" t="n" s="87">
-        <v>0.9999996663461347</v>
+        <v>0.9999996011630561</v>
       </c>
       <c r="AP72" t="n" s="87">
         <v>0.9202408855516089</v>
@@ -10532,11 +10394,9 @@
         <v>0.9918063257135891</v>
       </c>
       <c r="AR72" t="n" s="87">
-        <v>0.9997760207773109</v>
-      </c>
-      <c r="AS72" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9997362178870676</v>
+      </c>
+      <c r="AS72" s="87"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -10642,7 +10502,7 @@
         <v>0.9989382055812829</v>
       </c>
       <c r="AL73" t="n" s="87">
-        <v>0.8523696974351782</v>
+        <v>0.8338643377693177</v>
       </c>
       <c r="AM73" t="n" s="87">
         <v>0.9985469754819952</v>
@@ -10651,7 +10511,7 @@
         <v>0.998191375505188</v>
       </c>
       <c r="AO73" t="n" s="87">
-        <v>0.9241459694349718</v>
+        <v>0.9164203101482137</v>
       </c>
       <c r="AP73" t="n" s="87">
         <v>0.709726329709148</v>
@@ -10660,11 +10520,9 @@
         <v>0.8485683337007006</v>
       </c>
       <c r="AR73" t="n" s="87">
-        <v>0.004668235135169057</v>
-      </c>
-      <c r="AS73" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.004215751093729539</v>
+      </c>
+      <c r="AS73" s="87"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -10790,9 +10648,7 @@
       <c r="AR74" t="n" s="87">
         <v>0.9999999801870836</v>
       </c>
-      <c r="AS74" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS74" s="87"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -10898,7 +10754,7 @@
         <v>0.9999629041180893</v>
       </c>
       <c r="AL75" t="n" s="87">
-        <v>0.9999971619061714</v>
+        <v>0.9999970498925231</v>
       </c>
       <c r="AM75" t="n" s="87">
         <v>0.9999595235452601</v>
@@ -10907,7 +10763,7 @@
         <v>0.999999999893666</v>
       </c>
       <c r="AO75" t="n" s="87">
-        <v>0.9999999999618686</v>
+        <v>0.9999999999606437</v>
       </c>
       <c r="AP75" t="n" s="87">
         <v>0.9999800666376177</v>
@@ -10916,11 +10772,9 @@
         <v>0.9999999993671486</v>
       </c>
       <c r="AR75" t="n" s="87">
-        <v>0.9999999720178206</v>
-      </c>
-      <c r="AS75" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999712671932</v>
+      </c>
+      <c r="AS75" s="87"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -11026,7 +10880,7 @@
         <v>0.9996388830436803</v>
       </c>
       <c r="AL76" t="n" s="87">
-        <v>0.9891351774954875</v>
+        <v>0.9876213726022357</v>
       </c>
       <c r="AM76" t="n" s="87">
         <v>0.9996098130817297</v>
@@ -11035,7 +10889,7 @@
         <v>0.9999841443337237</v>
       </c>
       <c r="AO76" t="n" s="87">
-        <v>0.9995660576296134</v>
+        <v>0.9995189341888385</v>
       </c>
       <c r="AP76" t="n" s="87">
         <v>0.9914947071981328</v>
@@ -11044,11 +10898,9 @@
         <v>0.9995219396452437</v>
       </c>
       <c r="AR76" t="n" s="87">
-        <v>0.9994837241117017</v>
-      </c>
-      <c r="AS76" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9994331576865962</v>
+      </c>
+      <c r="AS76" s="87"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -11154,7 +11006,7 @@
         <v>0.9960735578382904</v>
       </c>
       <c r="AL77" t="n" s="87">
-        <v>0.788962790780404</v>
+        <v>0.7502016048039325</v>
       </c>
       <c r="AM77" t="n" s="87">
         <v>0.9932827909183695</v>
@@ -11163,7 +11015,7 @@
         <v>0.9874329649615338</v>
       </c>
       <c r="AO77" t="n" s="87">
-        <v>0.68482390256966</v>
+        <v>0.644613927074494</v>
       </c>
       <c r="AP77" t="n" s="87">
         <v>0.60695636747339</v>
@@ -11172,11 +11024,9 @@
         <v>0.5932080588008948</v>
       </c>
       <c r="AR77" t="n" s="87">
-        <v>1.6391718328783884E-4</v>
-      </c>
-      <c r="AS77" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>1.3898702382668046E-4</v>
+      </c>
+      <c r="AS77" s="87"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -11282,7 +11132,7 @@
         <v>0.9999485918161181</v>
       </c>
       <c r="AL78" t="n" s="87">
-        <v>0.9999922435830237</v>
+        <v>0.9999918745242303</v>
       </c>
       <c r="AM78" t="n" s="87">
         <v>0.9971106078384073</v>
@@ -11291,7 +11141,7 @@
         <v>0.9999782726083288</v>
       </c>
       <c r="AO78" t="n" s="87">
-        <v>0.9999885705812083</v>
+        <v>0.9999881319911602</v>
       </c>
       <c r="AP78" t="n" s="87">
         <v>0.8282460632826911</v>
@@ -11300,11 +11150,9 @@
         <v>0.9330054170372287</v>
       </c>
       <c r="AR78" t="n" s="87">
-        <v>0.9961470820715748</v>
-      </c>
-      <c r="AS78" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9960237599503633</v>
+      </c>
+      <c r="AS78" s="87"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -11410,7 +11258,7 @@
         <v>0.9999354707880574</v>
       </c>
       <c r="AL79" t="n" s="87">
-        <v>0.9999958298728423</v>
+        <v>0.9999954208879908</v>
       </c>
       <c r="AM79" t="n" s="87">
         <v>0.9995076221293125</v>
@@ -11419,7 +11267,7 @@
         <v>0.9999997425990242</v>
       </c>
       <c r="AO79" t="n" s="87">
-        <v>0.9999997556403128</v>
+        <v>0.9999997385169098</v>
       </c>
       <c r="AP79" t="n" s="87">
         <v>0.8934148398435255</v>
@@ -11428,11 +11276,9 @@
         <v>0.9853350103892157</v>
       </c>
       <c r="AR79" t="n" s="87">
-        <v>0.999343751791381</v>
-      </c>
-      <c r="AS79" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9992956544546289</v>
+      </c>
+      <c r="AS79" s="87"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -11538,7 +11384,7 @@
         <v>0.9990327557250808</v>
       </c>
       <c r="AL80" t="n" s="87">
-        <v>0.9123118407646791</v>
+        <v>0.9011637256519636</v>
       </c>
       <c r="AM80" t="n" s="87">
         <v>0.9991348084194308</v>
@@ -11547,7 +11393,7 @@
         <v>0.9997253463390186</v>
       </c>
       <c r="AO80" t="n" s="87">
-        <v>0.9890287392654337</v>
+        <v>0.9878512363393568</v>
       </c>
       <c r="AP80" t="n" s="87">
         <v>0.9300683565218578</v>
@@ -11556,11 +11402,9 @@
         <v>0.9892252203576762</v>
       </c>
       <c r="AR80" t="n" s="87">
-        <v>0.6288355964015385</v>
-      </c>
-      <c r="AS80" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.6067650281377144</v>
+      </c>
+      <c r="AS80" s="87"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -11666,7 +11510,7 @@
         <v>0.9965671037726186</v>
       </c>
       <c r="AL81" t="n" s="87">
-        <v>0.9999511383361994</v>
+        <v>0.9999427748956352</v>
       </c>
       <c r="AM81" t="n" s="87">
         <v>0.9930018841970655</v>
@@ -11675,7 +11519,7 @@
         <v>0.9999795432285407</v>
       </c>
       <c r="AO81" t="n" s="87">
-        <v>0.9999998125140078</v>
+        <v>0.9999997825264542</v>
       </c>
       <c r="AP81" t="n" s="87">
         <v>0.9247981132389844</v>
@@ -11684,11 +11528,9 @@
         <v>0.9975181637505102</v>
       </c>
       <c r="AR81" t="n" s="87">
-        <v>0.9999540259188777</v>
-      </c>
-      <c r="AS81" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.999947574508079</v>
+      </c>
+      <c r="AS81" s="87"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -11794,7 +11636,7 @@
         <v>0.9993298554975331</v>
       </c>
       <c r="AL82" t="n" s="87">
-        <v>0.9761317900720083</v>
+        <v>0.971592905062131</v>
       </c>
       <c r="AM82" t="n" s="87">
         <v>0.9985872282214635</v>
@@ -11803,7 +11645,7 @@
         <v>0.9995591857939781</v>
       </c>
       <c r="AO82" t="n" s="87">
-        <v>0.9976976143891738</v>
+        <v>0.9973604420181634</v>
       </c>
       <c r="AP82" t="n" s="87">
         <v>0.7717440609149163</v>
@@ -11812,11 +11654,9 @@
         <v>0.9091208249660981</v>
       </c>
       <c r="AR82" t="n" s="87">
-        <v>0.43034995022235645</v>
-      </c>
-      <c r="AS82" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.39907925377306436</v>
+      </c>
+      <c r="AS82" s="87"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -11922,7 +11762,7 @@
         <v>0.9991431031133345</v>
       </c>
       <c r="AL83" t="n" s="87">
-        <v>0.898907716579003</v>
+        <v>0.8814668134885788</v>
       </c>
       <c r="AM83" t="n" s="87">
         <v>0.9985872282214635</v>
@@ -11931,7 +11771,7 @@
         <v>0.9988341492504703</v>
       </c>
       <c r="AO83" t="n" s="87">
-        <v>0.9797404013637394</v>
+        <v>0.976834548454233</v>
       </c>
       <c r="AP83" t="n" s="87">
         <v>0.751200235286688</v>
@@ -11940,11 +11780,9 @@
         <v>0.8920353651396085</v>
       </c>
       <c r="AR83" t="n" s="87">
-        <v>0.03852237004152272</v>
-      </c>
-      <c r="AS83" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.03402272237980502</v>
+      </c>
+      <c r="AS83" s="87"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -12070,9 +11908,7 @@
       <c r="AR84" t="n" s="87">
         <v>0.9999999991980585</v>
       </c>
-      <c r="AS84" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS84" s="87"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -12198,9 +12034,7 @@
       <c r="AR85" t="n" s="87">
         <v>0.9999999992642663</v>
       </c>
-      <c r="AS85" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS85" s="87"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -12306,7 +12140,7 @@
         <v>0.9999747597468095</v>
       </c>
       <c r="AL86" t="n" s="87">
-        <v>0.999999786331302</v>
+        <v>0.9999997778982209</v>
       </c>
       <c r="AM86" t="n" s="87">
         <v>0.9997817834332092</v>
@@ -12315,7 +12149,7 @@
         <v>0.9999999978075581</v>
       </c>
       <c r="AO86" t="n" s="87">
-        <v>0.9999999993958011</v>
+        <v>0.9999999993763917</v>
       </c>
       <c r="AP86" t="n" s="87">
         <v>0.993334251805485</v>
@@ -12324,11 +12158,9 @@
         <v>0.9999719125073928</v>
       </c>
       <c r="AR86" t="n" s="87">
-        <v>0.9999946179775495</v>
-      </c>
-      <c r="AS86" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999944736045744</v>
+      </c>
+      <c r="AS86" s="87"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -12434,7 +12266,7 @@
         <v>0.9999858897894094</v>
       </c>
       <c r="AL87" t="n" s="87">
-        <v>0.9999999968671078</v>
+        <v>0.9999999967180401</v>
       </c>
       <c r="AM87" t="n" s="87">
         <v>0.9987849066941681</v>
@@ -12443,7 +12275,7 @@
         <v>0.9999999945858087</v>
       </c>
       <c r="AO87" t="n" s="87">
-        <v>0.9999999999979854</v>
+        <v>0.999999999997908</v>
       </c>
       <c r="AP87" t="n" s="87">
         <v>0.9846422404835832</v>
@@ -12452,11 +12284,9 @@
         <v>0.9999971524815094</v>
       </c>
       <c r="AR87" t="n" s="87">
-        <v>0.9999998132690275</v>
-      </c>
-      <c r="AS87" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999998072683843</v>
+      </c>
+      <c r="AS87" s="87"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -12562,7 +12392,7 @@
         <v>0.9956676332374103</v>
       </c>
       <c r="AL88" t="n" s="87">
-        <v>0.9999375723345505</v>
+        <v>0.9999268870296866</v>
       </c>
       <c r="AM88" t="n" s="87">
         <v>0.9862177495222793</v>
@@ -12571,7 +12401,7 @@
         <v>0.9999736104747871</v>
       </c>
       <c r="AO88" t="n" s="87">
-        <v>0.9999987703434124</v>
+        <v>0.9999985736655278</v>
       </c>
       <c r="AP88" t="n" s="87">
         <v>0.5554750305666154</v>
@@ -12580,11 +12410,9 @@
         <v>0.7166409372248026</v>
       </c>
       <c r="AR88" t="n" s="87">
-        <v>0.9922864124849696</v>
-      </c>
-      <c r="AS88" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9912134414417811</v>
+      </c>
+      <c r="AS88" s="87"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -12690,7 +12518,7 @@
         <v>0.9999405128119881</v>
       </c>
       <c r="AL89" t="n" s="87">
-        <v>0.9999995482972053</v>
+        <v>0.9999995081284435</v>
       </c>
       <c r="AM89" t="n" s="87">
         <v>0.9996868513334979</v>
@@ -12699,7 +12527,7 @@
         <v>0.9999999962045525</v>
       </c>
       <c r="AO89" t="n" s="87">
-        <v>0.999999999634022</v>
+        <v>0.9999999996077699</v>
       </c>
       <c r="AP89" t="n" s="87">
         <v>0.998099872817644</v>
@@ -12708,11 +12536,9 @@
         <v>0.99999713009664</v>
       </c>
       <c r="AR89" t="n" s="87">
-        <v>0.999998420778363</v>
-      </c>
-      <c r="AS89" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999983263055945</v>
+      </c>
+      <c r="AS89" s="87"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -12838,9 +12664,7 @@
       <c r="AR90" t="n" s="87">
         <v>0.9999995579598133</v>
       </c>
-      <c r="AS90" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS90" s="87"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -12946,7 +12770,7 @@
         <v>0.9990359389474844</v>
       </c>
       <c r="AL91" t="n" s="87">
-        <v>0.9448597995205906</v>
+        <v>0.9347714808733164</v>
       </c>
       <c r="AM91" t="n" s="87">
         <v>0.9975599552338481</v>
@@ -12955,7 +12779,7 @@
         <v>0.9976570893436696</v>
       </c>
       <c r="AO91" t="n" s="87">
-        <v>0.9841433780164472</v>
+        <v>0.9818573536845492</v>
       </c>
       <c r="AP91" t="n" s="87">
         <v>0.708217138991043</v>
@@ -12964,11 +12788,9 @@
         <v>0.8195392724524034</v>
       </c>
       <c r="AR91" t="n" s="87">
-        <v>0.03597954497128447</v>
-      </c>
-      <c r="AS91" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.031767101359116645</v>
+      </c>
+      <c r="AS91" s="87"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -13074,7 +12896,7 @@
         <v>0.9999736075344936</v>
       </c>
       <c r="AL92" t="n" s="87">
-        <v>0.9999999905989796</v>
+        <v>0.9999999901487563</v>
       </c>
       <c r="AM92" t="n" s="87">
         <v>0.9989633298120749</v>
@@ -13083,7 +12905,7 @@
         <v>0.9999999943084782</v>
       </c>
       <c r="AO92" t="n" s="87">
-        <v>0.9999999999946413</v>
+        <v>0.9999999999944568</v>
       </c>
       <c r="AP92" t="n" s="87">
         <v>0.9790554597722227</v>
@@ -13092,11 +12914,9 @@
         <v>0.9999941201994427</v>
       </c>
       <c r="AR92" t="n" s="87">
-        <v>0.9999996799236313</v>
-      </c>
-      <c r="AS92" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999996683936195</v>
+      </c>
+      <c r="AS92" s="87"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -13202,7 +13022,7 @@
         <v>0.9999205431673188</v>
       </c>
       <c r="AL93" t="n" s="87">
-        <v>0.9988073128218657</v>
+        <v>0.9987502653302708</v>
       </c>
       <c r="AM93" t="n" s="87">
         <v>0.9997662239434928</v>
@@ -13211,7 +13031,7 @@
         <v>0.9999933514691229</v>
       </c>
       <c r="AO93" t="n" s="87">
-        <v>0.9998419356401665</v>
+        <v>0.9998364921454246</v>
       </c>
       <c r="AP93" t="n" s="87">
         <v>0.8958856251631505</v>
@@ -13220,11 +13040,9 @@
         <v>0.9775055077826477</v>
       </c>
       <c r="AR93" t="n" s="87">
-        <v>0.9650106534189824</v>
-      </c>
-      <c r="AS93" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9637958746901579</v>
+      </c>
+      <c r="AS93" s="87"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -13350,9 +13168,7 @@
       <c r="AR94" t="n" s="87">
         <v>0.9999999801870836</v>
       </c>
-      <c r="AS94" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS94" s="87"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -13458,7 +13274,7 @@
         <v>0.9998694467058938</v>
       </c>
       <c r="AL95" t="n" s="87">
-        <v>0.9931332538487241</v>
+        <v>0.9928641708209829</v>
       </c>
       <c r="AM95" t="n" s="87">
         <v>0.9998560698335338</v>
@@ -13467,7 +13283,7 @@
         <v>0.9999974194222453</v>
       </c>
       <c r="AO95" t="n" s="87">
-        <v>0.999148650828868</v>
+        <v>0.9991213259145318</v>
       </c>
       <c r="AP95" t="n" s="87">
         <v>0.9965129069078253</v>
@@ -13476,11 +13292,9 @@
         <v>0.9996217300692655</v>
       </c>
       <c r="AR95" t="n" s="87">
-        <v>0.996994616938697</v>
-      </c>
-      <c r="AS95" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9969142457414867</v>
+      </c>
+      <c r="AS95" s="87"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -13606,9 +13420,7 @@
       <c r="AR96" t="n" s="87">
         <v>0.9999999898327617</v>
       </c>
-      <c r="AS96" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS96" s="87"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -13734,9 +13546,7 @@
       <c r="AR97" t="n" s="87">
         <v>0.99999969631079</v>
       </c>
-      <c r="AS97" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS97" s="87"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -13862,9 +13672,7 @@
       <c r="AR98" t="n" s="87">
         <v>0.9986191938224548</v>
       </c>
-      <c r="AS98" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS98" s="87"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -13990,9 +13798,7 @@
       <c r="AR99" t="n" s="87">
         <v>0.9999999533542382</v>
       </c>
-      <c r="AS99" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS99" s="87"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -14098,7 +13904,7 @@
         <v>0.996794137108753</v>
       </c>
       <c r="AL100" t="n" s="87">
-        <v>0.9144372738120484</v>
+        <v>0.9002972198679011</v>
       </c>
       <c r="AM100" t="n" s="87">
         <v>0.9951516502633494</v>
@@ -14107,7 +13913,7 @@
         <v>0.9956239791490342</v>
       </c>
       <c r="AO100" t="n" s="87">
-        <v>0.9703254889672275</v>
+        <v>0.9659917040989607</v>
       </c>
       <c r="AP100" t="n" s="87">
         <v>0.8070405286662822</v>
@@ -14116,11 +13922,9 @@
         <v>0.9311312070759892</v>
       </c>
       <c r="AR100" t="n" s="87">
-        <v>0.10142872937136485</v>
-      </c>
-      <c r="AS100" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.09001679358822672</v>
+      </c>
+      <c r="AS100" s="87"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -14226,7 +14030,7 @@
         <v>0.9999730065026422</v>
       </c>
       <c r="AL101" t="n" s="87">
-        <v>0.9999997027889516</v>
+        <v>0.9999996910586201</v>
       </c>
       <c r="AM101" t="n" s="87">
         <v>0.9999430979145865</v>
@@ -14235,7 +14039,7 @@
         <v>0.9999999999530788</v>
       </c>
       <c r="AO101" t="n" s="87">
-        <v>0.9999999999736612</v>
+        <v>0.999999999972815</v>
       </c>
       <c r="AP101" t="n" s="87">
         <v>0.9999095833547594</v>
@@ -14244,11 +14048,9 @@
         <v>0.9999999787273461</v>
       </c>
       <c r="AR101" t="n" s="87">
-        <v>0.9999998144891614</v>
-      </c>
-      <c r="AS101" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999998095127988</v>
+      </c>
+      <c r="AS101" s="87"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -14354,7 +14156,7 @@
         <v>0.9993298554975331</v>
       </c>
       <c r="AL102" t="n" s="87">
-        <v>0.9802849136610421</v>
+        <v>0.9765168051438058</v>
       </c>
       <c r="AM102" t="n" s="87">
         <v>0.9989741602575257</v>
@@ -14363,7 +14165,7 @@
         <v>0.9998273107232807</v>
       </c>
       <c r="AO102" t="n" s="87">
-        <v>0.9979775422673691</v>
+        <v>0.9976812686015529</v>
       </c>
       <c r="AP102" t="n" s="87">
         <v>0.9353495133446875</v>
@@ -14372,11 +14174,9 @@
         <v>0.9868613643173169</v>
       </c>
       <c r="AR102" t="n" s="87">
-        <v>0.9213052122556796</v>
-      </c>
-      <c r="AS102" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9114391486791008</v>
+      </c>
+      <c r="AS102" s="87"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -14482,7 +14282,7 @@
         <v>0.9995447734207996</v>
       </c>
       <c r="AL103" t="n" s="87">
-        <v>0.9348235364438273</v>
+        <v>0.9263062320718297</v>
       </c>
       <c r="AM103" t="n" s="87">
         <v>0.9992979757133176</v>
@@ -14491,7 +14291,7 @@
         <v>0.9996745773411722</v>
       </c>
       <c r="AO103" t="n" s="87">
-        <v>0.9912780557259863</v>
+        <v>0.9903396052345312</v>
       </c>
       <c r="AP103" t="n" s="87">
         <v>0.8145021991842493</v>
@@ -14500,11 +14300,9 @@
         <v>0.9462617148158906</v>
       </c>
       <c r="AR103" t="n" s="87">
-        <v>0.17367789103896697</v>
-      </c>
-      <c r="AS103" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.16066711993007476</v>
+      </c>
+      <c r="AS103" s="87"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -14610,7 +14408,7 @@
         <v>0.9993298554975331</v>
       </c>
       <c r="AL104" t="n" s="87">
-        <v>0.9761317900720083</v>
+        <v>0.971592905062131</v>
       </c>
       <c r="AM104" t="n" s="87">
         <v>0.9985872282214635</v>
@@ -14619,7 +14417,7 @@
         <v>0.9995591857939781</v>
       </c>
       <c r="AO104" t="n" s="87">
-        <v>0.9976976143891738</v>
+        <v>0.9973604420181634</v>
       </c>
       <c r="AP104" t="n" s="87">
         <v>0.7717440609149163</v>
@@ -14628,11 +14426,9 @@
         <v>0.9091208249660981</v>
       </c>
       <c r="AR104" t="n" s="87">
-        <v>0.43034995022235645</v>
-      </c>
-      <c r="AS104" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.39907925377306436</v>
+      </c>
+      <c r="AS104" s="87"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -14738,7 +14534,7 @@
         <v>0.9999174800852226</v>
       </c>
       <c r="AL105" t="n" s="87">
-        <v>0.9997190185984138</v>
+        <v>0.9997055661052641</v>
       </c>
       <c r="AM105" t="n" s="87">
         <v>0.9993111750599772</v>
@@ -14747,7 +14543,7 @@
         <v>0.9999682815305961</v>
       </c>
       <c r="AO105" t="n" s="87">
-        <v>0.9998832289597002</v>
+        <v>0.9998792073719075</v>
       </c>
       <c r="AP105" t="n" s="87">
         <v>0.8295519155070462</v>
@@ -14756,11 +14552,9 @@
         <v>0.9365467012493275</v>
       </c>
       <c r="AR105" t="n" s="87">
-        <v>0.9537727239011466</v>
-      </c>
-      <c r="AS105" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9521871120390935</v>
+      </c>
+      <c r="AS105" s="87"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -14866,7 +14660,7 @@
         <v>0.9991431031133345</v>
       </c>
       <c r="AL106" t="n" s="87">
-        <v>0.9092820719598239</v>
+        <v>0.8934187843422252</v>
       </c>
       <c r="AM106" t="n" s="87">
         <v>0.9989741602575257</v>
@@ -14875,7 +14669,7 @@
         <v>0.999456086221896</v>
       </c>
       <c r="AO106" t="n" s="87">
-        <v>0.9819418902253672</v>
+        <v>0.9793451420166454</v>
       </c>
       <c r="AP106" t="n" s="87">
         <v>0.9212939044951087</v>
@@ -14884,11 +14678,9 @@
         <v>0.9839377802897723</v>
       </c>
       <c r="AR106" t="n" s="87">
-        <v>0.4154585571567005</v>
-      </c>
-      <c r="AS106" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.3845394812169931</v>
+      </c>
+      <c r="AS106" s="87"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -14994,7 +14786,7 @@
         <v>0.9995382757683434</v>
       </c>
       <c r="AL107" t="n" s="87">
-        <v>0.9718064937094532</v>
+        <v>0.9707263255476616</v>
       </c>
       <c r="AM107" t="n" s="87">
         <v>0.9998648802456371</v>
@@ -15003,7 +14795,7 @@
         <v>0.9999947954526535</v>
       </c>
       <c r="AO107" t="n" s="87">
-        <v>0.9975845178701348</v>
+        <v>0.9975071157790096</v>
       </c>
       <c r="AP107" t="n" s="87">
         <v>0.9981916118797864</v>
@@ -15012,11 +14804,9 @@
         <v>0.9996914172714921</v>
       </c>
       <c r="AR107" t="n" s="87">
-        <v>0.9953605989663833</v>
-      </c>
-      <c r="AS107" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9952367389549707</v>
+      </c>
+      <c r="AS107" s="87"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -15142,9 +14932,7 @@
       <c r="AR108" t="n" s="87">
         <v>0.9999999999927892</v>
       </c>
-      <c r="AS108" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS108" s="87"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -15250,7 +15038,7 @@
         <v>0.9951006138411373</v>
       </c>
       <c r="AL109" t="n" s="87">
-        <v>0.7898866809608961</v>
+        <v>0.7451614912582673</v>
       </c>
       <c r="AM109" t="n" s="87">
         <v>0.990999087500192</v>
@@ -15259,7 +15047,7 @@
         <v>0.9852883458001657</v>
       </c>
       <c r="AO109" t="n" s="87">
-        <v>0.8488271966913977</v>
+        <v>0.8183990714057024</v>
       </c>
       <c r="AP109" t="n" s="87">
         <v>0.5997768264198811</v>
@@ -15268,11 +15056,9 @@
         <v>0.5743788261563337</v>
       </c>
       <c r="AR109" t="n" s="87">
-        <v>6.239862776243839E-4</v>
-      </c>
-      <c r="AS109" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>5.117827692437523E-4</v>
+      </c>
+      <c r="AS109" s="87"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -15378,7 +15164,7 @@
         <v>0.9998017894961689</v>
       </c>
       <c r="AL110" t="n" s="87">
-        <v>0.9997892874288576</v>
+        <v>0.9997595678394724</v>
       </c>
       <c r="AM110" t="n" s="87">
         <v>0.9992979757133176</v>
@@ -15387,7 +15173,7 @@
         <v>0.9999954317209634</v>
       </c>
       <c r="AO110" t="n" s="87">
-        <v>0.9999884486297373</v>
+        <v>0.9999871936351467</v>
       </c>
       <c r="AP110" t="n" s="87">
         <v>0.8678113456885895</v>
@@ -15396,11 +15182,9 @@
         <v>0.9675310682538757</v>
       </c>
       <c r="AR110" t="n" s="87">
-        <v>0.9930440117715087</v>
-      </c>
-      <c r="AS110" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9923675269790897</v>
+      </c>
+      <c r="AS110" s="87"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -15506,7 +15290,7 @@
         <v>0.9991431031133345</v>
       </c>
       <c r="AL111" t="n" s="87">
-        <v>0.898907716579003</v>
+        <v>0.8814668134885788</v>
       </c>
       <c r="AM111" t="n" s="87">
         <v>0.9985872282214635</v>
@@ -15515,7 +15299,7 @@
         <v>0.9988341492504703</v>
       </c>
       <c r="AO111" t="n" s="87">
-        <v>0.9797404013637394</v>
+        <v>0.976834548454233</v>
       </c>
       <c r="AP111" t="n" s="87">
         <v>0.751200235286688</v>
@@ -15524,11 +15308,9 @@
         <v>0.8920353651396085</v>
       </c>
       <c r="AR111" t="n" s="87">
-        <v>0.03852237004152272</v>
-      </c>
-      <c r="AS111" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.03402272237980502</v>
+      </c>
+      <c r="AS111" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="4">
